--- a/data/body_segments.xlsx
+++ b/data/body_segments.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Documents\PythonProject\smell-jena\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9500D2-D988-4254-98F3-9BD95346DB79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75EBE07-6B24-4FB4-AFC5-94B3DBE7A6C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>hair</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>h</t>
+  </si>
+  <si>
+    <t>neck</t>
   </si>
 </sst>
 </file>
@@ -372,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,16 +417,16 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E2">
+        <v>25.83</v>
+      </c>
+      <c r="F2">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="G2">
         <v>25</v>
-      </c>
-      <c r="F2">
-        <v>50</v>
-      </c>
-      <c r="G2">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -436,17 +439,16 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>129</v>
-      </c>
-      <c r="E3">
-        <v>40</v>
-      </c>
-      <c r="F3">
-        <v>30</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
